--- a/files/templates/CLASS 5 SEA-2.xlsx
+++ b/files/templates/CLASS 5 SEA-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>GYAN GANGA INTERNATIONAL SCHOOL</t>
   </si>
@@ -43,10 +43,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>CLASS 5 (2017)</t>
+    <t>MAXIMUM MARKS</t>
   </si>
   <si>
-    <t>PERIODIC TEST-1 (PT-1)</t>
+    <t>SUBJECT ENRICHMENT-2 (SEA-2)</t>
+  </si>
+  <si>
+    <t>CLASS 5 (2017)</t>
   </si>
   <si>
     <t>Sanskrit</t>
@@ -56,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,16 +91,42 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Adobe Heiti Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -216,42 +245,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -272,16 +282,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -290,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,39 +356,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -354,6 +416,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -649,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,89 +730,86 @@
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="7" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-    </row>
-    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -761,14 +825,14 @@
       <c r="E6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>11</v>
+      <c r="H6" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>8</v>
@@ -781,18 +845,31 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="22"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14">
+        <v>10</v>
+      </c>
+      <c r="G7" s="26">
+        <v>20</v>
+      </c>
+      <c r="H7" s="27">
+        <v>20</v>
+      </c>
+      <c r="I7" s="20"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -801,18 +878,17 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -821,18 +897,17 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -841,18 +916,17 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -861,18 +935,17 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -881,18 +954,17 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -901,18 +973,17 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -921,18 +992,17 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="8"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -941,18 +1011,17 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="8"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -961,18 +1030,17 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="8"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -981,18 +1049,17 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="8"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1001,18 +1068,17 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1021,18 +1087,17 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="8"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1041,18 +1106,17 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="8"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -1061,18 +1125,17 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="8"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -1081,18 +1144,17 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="8"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -1101,18 +1163,17 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="8"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1121,18 +1182,17 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="8"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1141,95 +1201,94 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G25" s="12"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G26" s="12"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G27" s="12"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G28" s="12"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G29" s="12"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G30" s="12"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G31" s="12"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
@@ -1238,9 +1297,9 @@
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="13"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
@@ -1249,9 +1308,9 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="13"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
@@ -1260,9 +1319,9 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="13"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
@@ -1271,9 +1330,9 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="13"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
@@ -1282,9 +1341,9 @@
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="13"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
@@ -1293,9 +1352,9 @@
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="13"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
@@ -1304,9 +1363,9 @@
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="13"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
@@ -1315,9 +1374,9 @@
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="13"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
@@ -1326,9 +1385,9 @@
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="13"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -1337,9 +1396,9 @@
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="13"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
@@ -1348,9 +1407,9 @@
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="13"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
@@ -1359,9 +1418,9 @@
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="13"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="24"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
@@ -1370,9 +1429,9 @@
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="13"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="24"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
@@ -1381,9 +1440,9 @@
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="13"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
@@ -1392,9 +1451,9 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="13"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="24"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
@@ -1403,9 +1462,9 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="13"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="24"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
@@ -1414,9 +1473,9 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="13"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="24"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
@@ -1425,9 +1484,9 @@
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="13"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="24"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
@@ -1436,9 +1495,9 @@
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="13"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="24"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
@@ -1447,9 +1506,9 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="13"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="24"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
@@ -1458,9 +1517,9 @@
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="13"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="24"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
@@ -1469,9 +1528,9 @@
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="13"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="24"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
@@ -1480,9 +1539,9 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="13"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="24"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
@@ -1491,13 +1550,13 @@
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="14"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/files/templates/CLASS 5 SEA-2.xlsx
+++ b/files/templates/CLASS 5 SEA-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>GYAN GANGA INTERNATIONAL SCHOOL</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Sanskrit</t>
+  </si>
+  <si>
+    <t>^</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -292,48 +295,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,7 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,20 +349,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,6 +359,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -718,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,17 +689,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -756,17 +710,17 @@
       <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -777,17 +731,17 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -798,43 +752,43 @@
       <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="6"/>
@@ -847,29 +801,34 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>20</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>10</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>10</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>10</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="19">
         <v>20</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="20">
         <v>20</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="20">
+        <f>C7+D7+E7+F7+G7+H7</f>
+        <v>90</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -888,7 +847,10 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="21"/>
+      <c r="I8" s="23">
+        <f>SUMIF(C8:H8,"&lt;&gt;#AB")</f>
+        <v>0</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -907,7 +869,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="5"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="22"/>
+      <c r="I9" s="23">
+        <f t="shared" ref="I9:I56" si="0">SUMIF(C9:H9,"&lt;&gt;#AB")</f>
+        <v>0</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -926,7 +891,10 @@
       <c r="F10" s="2"/>
       <c r="G10" s="5"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="22"/>
+      <c r="I10" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -945,7 +913,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="5"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="22"/>
+      <c r="I11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -964,7 +935,10 @@
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -983,7 +957,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="5"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="22"/>
+      <c r="I13" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1002,7 +979,10 @@
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="22"/>
+      <c r="I14" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1021,7 +1001,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1040,7 +1023,10 @@
       <c r="F16" s="2"/>
       <c r="G16" s="5"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="22"/>
+      <c r="I16" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1059,7 +1045,10 @@
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="22"/>
+      <c r="I17" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1078,7 +1067,10 @@
       <c r="F18" s="2"/>
       <c r="G18" s="5"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1097,7 +1089,10 @@
       <c r="F19" s="2"/>
       <c r="G19" s="5"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="22"/>
+      <c r="I19" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1116,7 +1111,10 @@
       <c r="F20" s="2"/>
       <c r="G20" s="5"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="22"/>
+      <c r="I20" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -1135,7 +1133,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="5"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="22"/>
+      <c r="I21" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -1154,7 +1155,10 @@
       <c r="F22" s="2"/>
       <c r="G22" s="5"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="22"/>
+      <c r="I22" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -1173,7 +1177,10 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="23"/>
+      <c r="I23" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1192,7 +1199,10 @@
       <c r="F24" s="2"/>
       <c r="G24" s="5"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="22"/>
+      <c r="I24" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1211,7 +1221,10 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="24"/>
+      <c r="I25" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
@@ -1222,7 +1235,10 @@
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="24"/>
+      <c r="I26" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
@@ -1233,7 +1249,10 @@
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="24"/>
+      <c r="I27" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
@@ -1244,7 +1263,10 @@
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="24"/>
+      <c r="I28" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
@@ -1255,7 +1277,10 @@
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="24"/>
+      <c r="I29" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
@@ -1266,7 +1291,10 @@
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="24"/>
+      <c r="I30" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
@@ -1277,7 +1305,10 @@
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="24"/>
+      <c r="I31" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
@@ -1288,7 +1319,10 @@
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="24"/>
+      <c r="I32" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
@@ -1299,7 +1333,10 @@
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="24"/>
+      <c r="I33" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
@@ -1310,7 +1347,10 @@
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="24"/>
+      <c r="I34" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
@@ -1321,7 +1361,10 @@
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="24"/>
+      <c r="I35" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
@@ -1332,7 +1375,10 @@
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
       <c r="H36" s="11"/>
-      <c r="I36" s="24"/>
+      <c r="I36" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
@@ -1343,7 +1389,10 @@
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="24"/>
+      <c r="I37" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
@@ -1354,7 +1403,10 @@
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="24"/>
+      <c r="I38" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
@@ -1365,7 +1417,10 @@
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="24"/>
+      <c r="I39" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
@@ -1376,7 +1431,10 @@
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="24"/>
+      <c r="I40" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
@@ -1387,7 +1445,10 @@
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="24"/>
+      <c r="I41" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -1398,7 +1459,10 @@
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="24"/>
+      <c r="I42" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
@@ -1409,7 +1473,10 @@
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="24"/>
+      <c r="I43" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
@@ -1420,7 +1487,10 @@
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="24"/>
+      <c r="I44" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
@@ -1431,7 +1501,10 @@
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
       <c r="H45" s="11"/>
-      <c r="I45" s="24"/>
+      <c r="I45" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
@@ -1442,7 +1515,10 @@
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
       <c r="H46" s="11"/>
-      <c r="I46" s="24"/>
+      <c r="I46" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
@@ -1453,7 +1529,10 @@
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
       <c r="H47" s="11"/>
-      <c r="I47" s="24"/>
+      <c r="I47" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
@@ -1464,7 +1543,10 @@
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
       <c r="H48" s="11"/>
-      <c r="I48" s="24"/>
+      <c r="I48" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
@@ -1475,7 +1557,10 @@
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
       <c r="H49" s="11"/>
-      <c r="I49" s="24"/>
+      <c r="I49" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
@@ -1486,7 +1571,10 @@
       <c r="F50" s="11"/>
       <c r="G50" s="12"/>
       <c r="H50" s="11"/>
-      <c r="I50" s="24"/>
+      <c r="I50" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
@@ -1497,7 +1585,10 @@
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
       <c r="H51" s="11"/>
-      <c r="I51" s="24"/>
+      <c r="I51" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
@@ -1508,7 +1599,10 @@
       <c r="F52" s="11"/>
       <c r="G52" s="12"/>
       <c r="H52" s="11"/>
-      <c r="I52" s="24"/>
+      <c r="I52" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
@@ -1519,7 +1613,10 @@
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
       <c r="H53" s="11"/>
-      <c r="I53" s="24"/>
+      <c r="I53" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
@@ -1530,7 +1627,10 @@
       <c r="F54" s="11"/>
       <c r="G54" s="12"/>
       <c r="H54" s="11"/>
-      <c r="I54" s="24"/>
+      <c r="I54" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
@@ -1541,9 +1641,12 @@
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
       <c r="H55" s="11"/>
-      <c r="I55" s="24"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1552,7 +1655,10 @@
       <c r="F56" s="11"/>
       <c r="G56" s="12"/>
       <c r="H56" s="11"/>
-      <c r="I56" s="25"/>
+      <c r="I56" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
